--- a/database/industries/shoyande/shegol/cashflow/yearly.xlsx
+++ b/database/industries/shoyande/shegol/cashflow/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBC8AE-7F4F-4AC7-8EE8-D469D4DAC36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/09</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/09</t>
   </si>
   <si>
@@ -51,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1397-10-19 (9)</t>
-  </si>
-  <si>
     <t>1398-10-26 (9)</t>
   </si>
   <si>
@@ -66,7 +64,10 @@
     <t>1400-11-27 (11)</t>
   </si>
   <si>
-    <t>1401-08-06 (6)</t>
+    <t>1401-10-30 (7)</t>
+  </si>
+  <si>
+    <t>1401-10-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -806,20 +841,20 @@
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>429123</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="E12" s="15">
+        <v>384805</v>
+      </c>
       <c r="F12" s="15">
-        <v>384805</v>
+        <v>-163547</v>
       </c>
       <c r="G12" s="15">
-        <v>-163547</v>
+        <v>127544</v>
       </c>
       <c r="H12" s="15">
-        <v>127544</v>
+        <v>2026956</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -828,19 +863,19 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-108699</v>
+        <v>-89343</v>
       </c>
       <c r="E13" s="11">
-        <v>-89343</v>
+        <v>-43095</v>
       </c>
       <c r="F13" s="11">
-        <v>-43095</v>
+        <v>-275235</v>
       </c>
       <c r="G13" s="11">
-        <v>-275235</v>
+        <v>-392010</v>
       </c>
       <c r="H13" s="11">
-        <v>-392010</v>
+        <v>-324365</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -849,19 +884,19 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>320424</v>
+        <v>330974</v>
       </c>
       <c r="E14" s="17">
-        <v>330974</v>
+        <v>341710</v>
       </c>
       <c r="F14" s="17">
-        <v>341710</v>
+        <v>-438782</v>
       </c>
       <c r="G14" s="17">
-        <v>-438782</v>
+        <v>-264466</v>
       </c>
       <c r="H14" s="17">
-        <v>-264466</v>
+        <v>1702591</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -881,19 +916,19 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>1320</v>
+        <v>1288</v>
       </c>
       <c r="E16" s="15">
-        <v>1288</v>
+        <v>3908</v>
       </c>
       <c r="F16" s="15">
-        <v>3908</v>
+        <v>585</v>
       </c>
       <c r="G16" s="15">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H16" s="15">
-        <v>576</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -902,19 +937,19 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-21543</v>
+        <v>-34973</v>
       </c>
       <c r="E17" s="11">
-        <v>-34973</v>
+        <v>-81852</v>
       </c>
       <c r="F17" s="11">
-        <v>-81852</v>
+        <v>-260454</v>
       </c>
       <c r="G17" s="11">
-        <v>-260454</v>
+        <v>-1128688</v>
       </c>
       <c r="H17" s="11">
-        <v>-1128688</v>
+        <v>-117492</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -925,8 +960,8 @@
       <c r="D18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>18</v>
+      <c r="E18" s="15">
+        <v>0</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -965,19 +1000,19 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>-2</v>
+        <v>-626</v>
       </c>
       <c r="E20" s="15">
-        <v>-626</v>
+        <v>-56</v>
       </c>
       <c r="F20" s="15">
-        <v>-56</v>
+        <v>-344</v>
       </c>
       <c r="G20" s="15">
-        <v>-344</v>
+        <v>-3225</v>
       </c>
       <c r="H20" s="15">
-        <v>-3225</v>
+        <v>-822</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1028,7 +1063,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11">
         <v>0</v>
@@ -1049,10 +1084,10 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -1061,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>-111967</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1073,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>49740</v>
       </c>
       <c r="F25" s="11">
-        <v>49740</v>
+        <v>1000</v>
       </c>
       <c r="G25" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1097,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="15">
-        <v>-1</v>
+        <v>-40000</v>
       </c>
       <c r="H26" s="15">
-        <v>-40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1156,8 +1191,8 @@
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>18</v>
+      <c r="E29" s="11">
+        <v>0</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -1178,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F30" s="15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="15">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H30" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1196,19 +1231,19 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>20982</v>
+        <v>24258</v>
       </c>
       <c r="E31" s="11">
-        <v>24258</v>
+        <v>11033</v>
       </c>
       <c r="F31" s="11">
-        <v>11033</v>
+        <v>11714</v>
       </c>
       <c r="G31" s="11">
-        <v>11714</v>
+        <v>26054</v>
       </c>
       <c r="H31" s="11">
-        <v>26054</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1217,19 +1252,19 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>1457</v>
+        <v>-34312</v>
       </c>
       <c r="E32" s="17">
-        <v>-34312</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="17">
-        <v>-17200</v>
+        <v>-247474</v>
       </c>
       <c r="G32" s="17">
-        <v>-247474</v>
+        <v>-1145273</v>
       </c>
       <c r="H32" s="17">
-        <v>-1145273</v>
+        <v>-212444</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1238,19 +1273,19 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>321881</v>
+        <v>-128338</v>
       </c>
       <c r="E33" s="19">
-        <v>-128338</v>
+        <v>324510</v>
       </c>
       <c r="F33" s="19">
-        <v>324510</v>
+        <v>-686256</v>
       </c>
       <c r="G33" s="19">
-        <v>-686256</v>
+        <v>-1409739</v>
       </c>
       <c r="H33" s="19">
-        <v>-1409739</v>
+        <v>1490147</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1279,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>0</v>
+        <v>29610</v>
       </c>
       <c r="H35" s="15">
-        <v>29610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1354,19 +1389,19 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>85000</v>
+        <v>175000</v>
       </c>
       <c r="E39" s="15">
-        <v>175000</v>
+        <v>880500</v>
       </c>
       <c r="F39" s="15">
-        <v>880500</v>
+        <v>2735182</v>
       </c>
       <c r="G39" s="15">
-        <v>2735182</v>
+        <v>8346134</v>
       </c>
       <c r="H39" s="15">
-        <v>8346134</v>
+        <v>6278100</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1375,19 +1410,19 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-28715</v>
+        <v>-72973</v>
       </c>
       <c r="E40" s="11">
-        <v>-72973</v>
+        <v>-718632</v>
       </c>
       <c r="F40" s="11">
-        <v>-718632</v>
+        <v>-1148632</v>
       </c>
       <c r="G40" s="11">
-        <v>-1148632</v>
+        <v>-5902047</v>
       </c>
       <c r="H40" s="11">
-        <v>-5902047</v>
+        <v>-6767288</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1396,19 +1431,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-3608</v>
+        <v>-8742</v>
       </c>
       <c r="E41" s="15">
-        <v>-8742</v>
+        <v>-51545</v>
       </c>
       <c r="F41" s="15">
-        <v>-51545</v>
+        <v>-92627</v>
       </c>
       <c r="G41" s="15">
-        <v>-92627</v>
+        <v>-512658</v>
       </c>
       <c r="H41" s="15">
-        <v>-512658</v>
+        <v>-941444</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1419,8 +1454,8 @@
       <c r="D42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>18</v>
+      <c r="E42" s="11">
+        <v>0</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -1440,8 +1475,8 @@
       <c r="D43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>18</v>
+      <c r="E43" s="15">
+        <v>0</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
@@ -1461,8 +1496,8 @@
       <c r="D44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>18</v>
+      <c r="E44" s="11">
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
@@ -1482,8 +1517,8 @@
       <c r="D45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>18</v>
+      <c r="E45" s="15">
+        <v>0</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
@@ -1503,8 +1538,8 @@
       <c r="D46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>18</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -1524,8 +1559,8 @@
       <c r="D47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>18</v>
+      <c r="E47" s="15">
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -1545,8 +1580,8 @@
       <c r="D48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>18</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -1566,8 +1601,8 @@
       <c r="D49" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>18</v>
+      <c r="E49" s="15">
+        <v>0</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
@@ -1585,19 +1620,19 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-317630</v>
+        <v>-351173</v>
       </c>
       <c r="E50" s="11">
-        <v>-351173</v>
+        <v>-395834</v>
       </c>
       <c r="F50" s="11">
-        <v>-395834</v>
+        <v>-503314</v>
       </c>
       <c r="G50" s="11">
-        <v>-503314</v>
+        <v>-386774</v>
       </c>
       <c r="H50" s="11">
-        <v>-386774</v>
+        <v>-498219</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1606,19 +1641,19 @@
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-264953</v>
+        <v>102027</v>
       </c>
       <c r="E51" s="17">
-        <v>102027</v>
+        <v>-285511</v>
       </c>
       <c r="F51" s="17">
-        <v>-285511</v>
+        <v>990609</v>
       </c>
       <c r="G51" s="17">
-        <v>990609</v>
+        <v>1574265</v>
       </c>
       <c r="H51" s="17">
-        <v>1574265</v>
+        <v>-1928851</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1627,19 +1662,19 @@
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>56928</v>
+        <v>-26311</v>
       </c>
       <c r="E52" s="19">
-        <v>-26311</v>
+        <v>38999</v>
       </c>
       <c r="F52" s="19">
-        <v>38999</v>
+        <v>304353</v>
       </c>
       <c r="G52" s="19">
-        <v>304353</v>
+        <v>164526</v>
       </c>
       <c r="H52" s="19">
-        <v>164526</v>
+        <v>-438704</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1648,19 +1683,19 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>21741</v>
+        <v>78741</v>
       </c>
       <c r="E53" s="15">
-        <v>78741</v>
+        <v>53016</v>
       </c>
       <c r="F53" s="15">
-        <v>53016</v>
+        <v>93003</v>
       </c>
       <c r="G53" s="15">
-        <v>93003</v>
+        <v>425336</v>
       </c>
       <c r="H53" s="15">
-        <v>425336</v>
+        <v>614192</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1669,19 +1704,19 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="E54" s="11">
-        <v>586</v>
+        <v>988</v>
       </c>
       <c r="F54" s="11">
-        <v>988</v>
+        <v>27980</v>
       </c>
       <c r="G54" s="11">
-        <v>27980</v>
+        <v>24330</v>
       </c>
       <c r="H54" s="11">
-        <v>24330</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -1690,19 +1725,19 @@
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>78740</v>
+        <v>53016</v>
       </c>
       <c r="E55" s="17">
-        <v>53016</v>
+        <v>93003</v>
       </c>
       <c r="F55" s="17">
-        <v>93003</v>
+        <v>425336</v>
       </c>
       <c r="G55" s="17">
-        <v>425336</v>
+        <v>614192</v>
       </c>
       <c r="H55" s="17">
-        <v>614192</v>
+        <v>178959</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -1711,7 +1746,7 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E56" s="11">
         <v>0</v>
@@ -1720,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>870390</v>
       </c>
       <c r="H56" s="11">
-        <v>870390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
